--- a/output/LPM/ejec_output.xlsx
+++ b/output/LPM/ejec_output.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,14 +425,275 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Instancia</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Memoria</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Valor FO</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Best Bound</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Rel GAP</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Tiempo Carga</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Tiempo Ejec</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Pacientes Atend</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Prioridad</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Avg Fichas</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Std Fichas</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Avg Cirug</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Std Cirug</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Avg Ratio</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Std Ratio</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Ocupación</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>vCp2n150s12d1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>4280.83</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Fact</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>96874</v>
+      </c>
+      <c r="E2" t="n">
+        <v>97380.49000000001</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G2" t="n">
+        <v>27.38</v>
+      </c>
+      <c r="H2" t="n">
+        <v>190.84</v>
+      </c>
+      <c r="I2" t="n">
+        <v>52</v>
+      </c>
+      <c r="J2" t="n">
+        <v>97</v>
+      </c>
+      <c r="K2" t="n">
+        <v>45</v>
+      </c>
+      <c r="L2" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="N2" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="O2" t="n">
+        <v>9.869999999999999</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>vCp2n150s18d1</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>6207.93</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Fact</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>96820</v>
+      </c>
+      <c r="E3" t="n">
+        <v>98979.74000000001</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G3" t="n">
+        <v>58.48</v>
+      </c>
+      <c r="H3" t="n">
+        <v>191.72</v>
+      </c>
+      <c r="I3" t="n">
+        <v>52</v>
+      </c>
+      <c r="J3" t="n">
+        <v>97</v>
+      </c>
+      <c r="K3" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="L3" t="n">
+        <v>8.619999999999999</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O3" t="n">
+        <v>10.78</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>vCp2n150s24d1</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>6738.97</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Fact</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>100755</v>
+      </c>
+      <c r="E4" t="n">
+        <v>101404.64</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>101.3</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>193.11</v>
+      </c>
+      <c r="I4" t="n">
+        <v>56</v>
+      </c>
+      <c r="J4" t="n">
+        <v>101</v>
+      </c>
+      <c r="K4" t="n">
+        <v>28.55</v>
+      </c>
+      <c r="L4" t="n">
+        <v>6.88</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="O4" t="n">
+        <v>11.05</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.92</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/output/LPM/ejec_output.xlsx
+++ b/output/LPM/ejec_output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,7 +527,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4280.83</v>
+        <v>8323.48</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -544,10 +544,10 @@
         <v>0.01</v>
       </c>
       <c r="G2" t="n">
-        <v>27.38</v>
+        <v>26.19</v>
       </c>
       <c r="H2" t="n">
-        <v>190.84</v>
+        <v>185.75</v>
       </c>
       <c r="I2" t="n">
         <v>52</v>
@@ -584,7 +584,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6207.93</v>
+        <v>10515.07</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>96820</v>
+        <v>96816</v>
       </c>
       <c r="E3" t="n">
-        <v>98979.74000000001</v>
+        <v>98940.78</v>
       </c>
       <c r="F3" t="n">
         <v>0.02</v>
       </c>
       <c r="G3" t="n">
-        <v>58.48</v>
+        <v>55.97</v>
       </c>
       <c r="H3" t="n">
-        <v>191.72</v>
+        <v>186.32</v>
       </c>
       <c r="I3" t="n">
         <v>52</v>
@@ -613,25 +613,25 @@
         <v>97</v>
       </c>
       <c r="K3" t="n">
-        <v>34.8</v>
+        <v>34.53</v>
       </c>
       <c r="L3" t="n">
-        <v>8.619999999999999</v>
+        <v>8.52</v>
       </c>
       <c r="M3" t="n">
         <v>3.47</v>
       </c>
       <c r="N3" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="O3" t="n">
-        <v>10.78</v>
+        <v>10.65</v>
       </c>
       <c r="P3" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="4">
@@ -641,7 +641,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6738.97</v>
+        <v>6546.24</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -657,13 +657,11 @@
       <c r="F4" t="n">
         <v>0.01</v>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>101.3</t>
-        </is>
+      <c r="G4" t="n">
+        <v>96.19</v>
       </c>
       <c r="H4" t="n">
-        <v>193.11</v>
+        <v>187.89</v>
       </c>
       <c r="I4" t="n">
         <v>56</v>
@@ -690,7 +688,123 @@
         <v>2.99</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.92</v>
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>vCp2n150s12d3</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>5268.65</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Fact</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>188882</v>
+      </c>
+      <c r="E5" t="n">
+        <v>201593.41</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G5" t="n">
+        <v>75.79000000000001</v>
+      </c>
+      <c r="H5" t="n">
+        <v>186.92</v>
+      </c>
+      <c r="I5" t="n">
+        <v>126</v>
+      </c>
+      <c r="J5" t="n">
+        <v>190</v>
+      </c>
+      <c r="K5" t="n">
+        <v>113.67</v>
+      </c>
+      <c r="L5" t="n">
+        <v>29.41</v>
+      </c>
+      <c r="M5" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="N5" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="O5" t="n">
+        <v>11</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>vCp2n150s18d3</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>8289.629999999999</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Fact</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>165345</v>
+      </c>
+      <c r="E6" t="n">
+        <v>201154.58</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>175.63</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>189.43</v>
+      </c>
+      <c r="I6" t="n">
+        <v>117</v>
+      </c>
+      <c r="J6" t="n">
+        <v>168</v>
+      </c>
+      <c r="K6" t="n">
+        <v>61.61</v>
+      </c>
+      <c r="L6" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="M6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="N6" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O6" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.74</v>
       </c>
     </row>
   </sheetData>

--- a/output/LPM/ejec_output.xlsx
+++ b/output/LPM/ejec_output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,7 +527,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8323.48</v>
+        <v>4897.9</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -544,10 +544,10 @@
         <v>0.01</v>
       </c>
       <c r="G2" t="n">
-        <v>26.19</v>
+        <v>23.91</v>
       </c>
       <c r="H2" t="n">
-        <v>185.75</v>
+        <v>61.44</v>
       </c>
       <c r="I2" t="n">
         <v>52</v>
@@ -584,7 +584,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10515.07</v>
+        <v>7856.29</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -592,19 +592,21 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>96816</v>
+        <v>96808</v>
       </c>
       <c r="E3" t="n">
-        <v>98940.78</v>
+        <v>98979.74000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0.02</v>
       </c>
-      <c r="G3" t="n">
-        <v>55.97</v>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>54.12</t>
+        </is>
       </c>
       <c r="H3" t="n">
-        <v>186.32</v>
+        <v>63</v>
       </c>
       <c r="I3" t="n">
         <v>52</v>
@@ -613,198 +615,25 @@
         <v>97</v>
       </c>
       <c r="K3" t="n">
-        <v>34.53</v>
+        <v>34</v>
       </c>
       <c r="L3" t="n">
-        <v>8.52</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="M3" t="n">
         <v>3.47</v>
       </c>
       <c r="N3" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="O3" t="n">
-        <v>10.65</v>
+        <v>10.53</v>
       </c>
       <c r="P3" t="n">
-        <v>2.84</v>
+        <v>2.74</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.83</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>vCp2n150s24d1</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>6546.24</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Fact</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>100755</v>
-      </c>
-      <c r="E4" t="n">
-        <v>101404.64</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="G4" t="n">
-        <v>96.19</v>
-      </c>
-      <c r="H4" t="n">
-        <v>187.89</v>
-      </c>
-      <c r="I4" t="n">
-        <v>56</v>
-      </c>
-      <c r="J4" t="n">
-        <v>101</v>
-      </c>
-      <c r="K4" t="n">
-        <v>28.55</v>
-      </c>
-      <c r="L4" t="n">
-        <v>6.88</v>
-      </c>
-      <c r="M4" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="O4" t="n">
-        <v>11.05</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.89</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>vCp2n150s12d3</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>5268.65</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Fact</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>188882</v>
-      </c>
-      <c r="E5" t="n">
-        <v>201593.41</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="G5" t="n">
-        <v>75.79000000000001</v>
-      </c>
-      <c r="H5" t="n">
-        <v>186.92</v>
-      </c>
-      <c r="I5" t="n">
-        <v>126</v>
-      </c>
-      <c r="J5" t="n">
-        <v>190</v>
-      </c>
-      <c r="K5" t="n">
-        <v>113.67</v>
-      </c>
-      <c r="L5" t="n">
-        <v>29.41</v>
-      </c>
-      <c r="M5" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="N5" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="O5" t="n">
-        <v>11</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>vCp2n150s18d3</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>8289.629999999999</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Fact</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>165345</v>
-      </c>
-      <c r="E6" t="n">
-        <v>201154.58</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>175.63</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>189.43</v>
-      </c>
-      <c r="I6" t="n">
-        <v>117</v>
-      </c>
-      <c r="J6" t="n">
-        <v>168</v>
-      </c>
-      <c r="K6" t="n">
-        <v>61.61</v>
-      </c>
-      <c r="L6" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="M6" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="N6" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="O6" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0.74</v>
+        <v>0.88</v>
       </c>
     </row>
   </sheetData>
